--- a/madrid lat long.xlsx
+++ b/madrid lat long.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Centro</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Goya</t>
   </si>
   <si>
-    <t>Parque de las Avenidas</t>
-  </si>
-  <si>
     <t>Fuente del Berro</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Superficie km2</t>
   </si>
 </sst>
 </file>
@@ -461,485 +461,543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="D2" t="str">
         <f>A2&amp;", "&amp;B2&amp;", Madrid, Spain"</f>
         <v>Palacio, Centro, Madrid, Spain</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>40.41512925</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-3.71561799839909</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C26" si="0">A3&amp;", "&amp;B3&amp;", Madrid, Spain"</f>
+      <c r="C3">
+        <v>1.032</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D25" si="0">A3&amp;", "&amp;B3&amp;", Madrid, Spain"</f>
         <v>Embajadores, Centro, Madrid, Spain</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>40.409680549999997</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-3.7016444264132198</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>Cortes, Centro, Madrid, Spain</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>40.414347599999999</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-3.6985251827738499</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>Justicia, Centro, Madrid, Spain</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>40.4239569</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-3.69574732085505</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>Universidad, Centro, Madrid, Spain</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>40.425264400000003</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-3.7066059690556799</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>Sol, Centro, Madrid, Spain</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>40.416945400000003</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-3.7034880999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8">
+        <v>0.75</v>
+      </c>
+      <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>Pacífico, Retiro, Madrid, Spain</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>40.403363949999999</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-3.6789798667593501</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9">
+        <v>0.64</v>
+      </c>
+      <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>Adelfas, Retiro, Madrid, Spain</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>40.40027955</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-3.6717672822326102</v>
       </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>Estrella, Retiro, Madrid, Spain</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>40.411761800000001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-3.6669977</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11">
+        <v>0.49</v>
+      </c>
+      <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>Ibiza, Retiro, Madrid, Spain</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>40.418917749999999</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-3.6740904924693201</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12">
+        <v>1.9</v>
+      </c>
+      <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>Jerónimos, Retiro, Madrid, Spain</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>40.413728599999999</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-3.6853564354967498</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>Niño Jesús, Retiro, Madrid, Spain</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>40.4110941</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-3.6737204999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14">
+        <v>0.87</v>
+      </c>
+      <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>Recoletos, Salamanca, Madrid, Spain</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>40.424173150000001</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-3.6854872649741401</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>Goya, Salamanca, Madrid, Spain</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>40.424762700000002</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-3.6759534999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>Parque de las Avenidas, Salamanca, Madrid, Spain</v>
-      </c>
-      <c r="D16">
-        <v>40.4393064</v>
+      <c r="C16">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>Fuente del Berro, Salamanca, Madrid, Spain</v>
       </c>
       <c r="E16">
-        <v>-3.6629008999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.423218200000001</v>
+      </c>
+      <c r="F16">
+        <v>-3.6630123000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>Fuente del Berro, Salamanca, Madrid, Spain</v>
-      </c>
-      <c r="D17">
-        <v>40.423218200000001</v>
+      <c r="C17">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Guindalera, Salamanca, Madrid, Spain</v>
       </c>
       <c r="E17">
-        <v>-3.6630123000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.441131400000003</v>
+      </c>
+      <c r="F17">
+        <v>-3.6639944</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>Guindalera, Salamanca, Madrid, Spain</v>
-      </c>
-      <c r="D18">
-        <v>40.441131400000003</v>
+      <c r="C18">
+        <v>0.52</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Lista, Salamanca, Madrid, Spain</v>
       </c>
       <c r="E18">
-        <v>-3.6639944</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.429397299999998</v>
+      </c>
+      <c r="F18">
+        <v>-3.6753988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>Lista, Salamanca, Madrid, Spain</v>
-      </c>
-      <c r="D19">
-        <v>40.429397299999998</v>
+      <c r="C19">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Castellana, Salamanca, Madrid, Spain</v>
       </c>
       <c r="E19">
-        <v>-3.6753988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.433822749999997</v>
+      </c>
+      <c r="F19">
+        <v>-3.6840035824511599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>Castellana, Salamanca, Madrid, Spain</v>
-      </c>
-      <c r="D20">
-        <v>40.433822749999997</v>
+      <c r="C20">
+        <v>1.708</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>El Viso, Chamartín, Madrid, Spain</v>
       </c>
       <c r="E20">
-        <v>-3.6840035824511599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.444797999999999</v>
+      </c>
+      <c r="F20">
+        <v>-3.6933232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>El Viso, Chamartín, Madrid, Spain</v>
-      </c>
-      <c r="D21">
-        <v>40.444797999999999</v>
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>1.43</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>Prosperidad, Chamartín, Madrid, Spain</v>
       </c>
       <c r="E21">
-        <v>-3.6933232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.4452949</v>
+      </c>
+      <c r="F21">
+        <v>-3.6784971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>Prosperidad, Chamartín, Madrid, Spain</v>
-      </c>
-      <c r="D22">
-        <v>40.4452949</v>
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ciudad Jardín, Chamartín, Madrid, Spain</v>
       </c>
       <c r="E22">
-        <v>-3.6784971</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.446949600000003</v>
+      </c>
+      <c r="F22">
+        <v>-3.6804827000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>Hispanoamérica, Chamartín, Madrid, Spain</v>
+      </c>
+      <c r="E23">
+        <v>40.455868500000001</v>
+      </c>
+      <c r="F23">
+        <v>-3.6855978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>Ciudad Jardín, Chamartín, Madrid, Spain</v>
-      </c>
-      <c r="D23">
-        <v>40.446949600000003</v>
-      </c>
-      <c r="E23">
-        <v>-3.6804827000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>Hispanoamérica, Chamartín, Madrid, Spain</v>
-      </c>
-      <c r="D24">
-        <v>40.455868500000001</v>
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>1.788</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>Nueva España, Chamartín, Madrid, Spain</v>
       </c>
       <c r="E24">
-        <v>-3.6855978</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.463145599999997</v>
+      </c>
+      <c r="F24">
+        <v>-3.6861766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>Nueva España, Chamartín, Madrid, Spain</v>
-      </c>
-      <c r="D25">
-        <v>40.463145599999997</v>
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>2.16</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>Castilla, Chamartín, Madrid, Spain</v>
       </c>
       <c r="E25">
-        <v>-3.6861766</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>Castilla, Chamartín, Madrid, Spain</v>
-      </c>
-      <c r="D26">
         <v>40.475094300000002</v>
       </c>
-      <c r="E26">
+      <c r="F25">
         <v>-3.6963431</v>
       </c>
     </row>

--- a/madrid lat long.xlsx
+++ b/madrid lat long.xlsx
@@ -125,7 +125,7 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Superficie km2</t>
+    <t>Superficie</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
